--- a/Data Files/InputData.xlsx
+++ b/Data Files/InputData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8993D9B8-4AE2-43D9-8218-E7B3D49C2739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4F5E4B9F-49B3-417F-93A9-6AC82B981A52}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="593" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="593" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Paynet" sheetId="36" r:id="rId1"/>
-    <sheet name="myExpert" sheetId="32" r:id="rId2"/>
-    <sheet name="myExpertAurum" sheetId="35" r:id="rId3"/>
+    <sheet name="Paynet" r:id="rId1" sheetId="36"/>
+    <sheet name="myExpert" r:id="rId2" sheetId="32"/>
+    <sheet name="myExpertAurum" r:id="rId3" sheetId="35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1177,14 +1177,15 @@
     <t>RM 60.00</t>
   </si>
   <si>
-    <t>TRX Ref#: 15964546879738510</t>
+    <t>TRX Ref#: 15966372112598510</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="189" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="193" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2278,6 +2279,11 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
     </font>
@@ -2297,6 +2303,23 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="FF0000"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2387,250 +2410,254 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="80" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="221">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="3"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="3"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="182" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="86" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="62" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="3" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="182" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="80" numFmtId="0" xfId="3"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00AC4B95-E384-4A2C-9699-1D2794E68C02}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{5D8A9354-61E8-4B3F-914A-788D117562FF}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2647,10 +2674,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2685,7 +2712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2720,7 +2747,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2814,21 +2841,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2845,7 +2872,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2897,43 +2924,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365BB10-7C60-4A1C-A919-4CE233F29911}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365BB10-7C60-4A1C-A919-4CE233F29911}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="4" ySplit="1"/>
       <selection activeCell="D2" sqref="D2"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection activeCell="D2" pane="topRight" sqref="D2"/>
+      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+      <selection activeCell="C3" pane="bottomRight" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="44.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="6.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="16.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="5" width="19.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="16.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="14" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +3001,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2984,10 +3011,10 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="214" t="s">
+      <c r="E2" s="218" t="s">
         <v>377</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -3015,7 +3042,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3025,8 +3052,8 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="213"/>
-      <c r="E3" s="212"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="215"/>
       <c r="F3" s="9" t="s">
         <v>373</v>
       </c>
@@ -3052,7 +3079,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3062,10 +3089,10 @@
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="D4" t="s" s="220">
         <v>66</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="212"/>
       <c r="F4" s="9" t="s">
         <v>373</v>
       </c>
@@ -3091,69 +3118,69 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" r="5" s="20" spans="1:13" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{4800BCB8-047F-47BA-B07F-D8A3D5659D4F}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C4" type="list" xr:uid="{4800BCB8-047F-47BA-B07F-D8A3D5659D4F}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{04959D6E-AD1C-4E0C-AD7C-9799EC80991E}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="K2:K4" type="list" xr:uid="{04959D6E-AD1C-4E0C-AD7C-9799EC80991E}">
       <formula1>"Maybank,BSN,RHB, Hong Leong"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{14844019-9538-40BF-B122-E2BB3A09AF6C}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{6FE393B0-3D21-4A19-8ABB-D3E0C7F4E403}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{A5770159-72BA-4BEB-9D6C-4539186B55BC}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{14844019-9538-40BF-B122-E2BB3A09AF6C}"/>
+    <hyperlink r:id="rId2" ref="I3" xr:uid="{6FE393B0-3D21-4A19-8ABB-D3E0C7F4E403}"/>
+    <hyperlink r:id="rId3" ref="I4" xr:uid="{A5770159-72BA-4BEB-9D6C-4539186B55BC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED942DAD-320B-43A9-AFA2-135AF5986002}">
-  <dimension ref="A1:AR90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED942DAD-320B-43A9-AFA2-135AF5986002}">
+  <dimension ref="A1:AS90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="G2" xSplit="4" ySplit="1"/>
       <selection activeCell="D2" sqref="D2"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" pane="topRight" sqref="D2"/>
+      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+      <selection activeCell="D1" pane="bottomRight" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="19.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="16.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="30.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.140625" style="5" collapsed="1"/>
-    <col min="27" max="27" width="16" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.140625" style="5" collapsed="1"/>
-    <col min="29" max="29" width="17.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="49.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="6.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="22.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="5" width="17.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="5" width="19.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="12.5703125" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" style="5" width="16.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="10.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="5" width="10.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="5" width="20.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="5" width="15.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="5" width="25.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="5" width="16.7109375" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="5" width="16.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="5" width="30.140625" collapsed="true"/>
+    <col min="26" max="26" style="5" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="28" max="28" style="5" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="5" width="17.140625" collapsed="true"/>
+    <col min="30" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3312,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3359,7 +3386,7 @@
       <c r="AM2" s="22"/>
       <c r="AN2" s="22"/>
     </row>
-    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3437,7 +3464,7 @@
       <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
     </row>
-    <row r="4" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3516,7 +3543,7 @@
       <c r="AM4" s="22"/>
       <c r="AN4" s="22"/>
     </row>
-    <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -3597,7 +3624,7 @@
       <c r="AM5" s="22"/>
       <c r="AN5" s="22"/>
     </row>
-    <row r="6" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -3680,7 +3707,7 @@
       <c r="AM6" s="22"/>
       <c r="AN6" s="22"/>
     </row>
-    <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>96</v>
       </c>
@@ -3764,7 +3791,7 @@
       <c r="AM7" s="22"/>
       <c r="AN7" s="22"/>
     </row>
-    <row r="8" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
@@ -3868,7 +3895,7 @@
       <c r="AM8" s="22"/>
       <c r="AN8" s="22"/>
     </row>
-    <row r="9" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>160</v>
       </c>
@@ -3974,7 +4001,7 @@
       <c r="AM9" s="22"/>
       <c r="AN9" s="22"/>
     </row>
-    <row r="10" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>168</v>
       </c>
@@ -4082,7 +4109,7 @@
       <c r="AM10" s="22"/>
       <c r="AN10" s="22"/>
     </row>
-    <row r="11" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>172</v>
       </c>
@@ -4196,7 +4223,7 @@
       <c r="AQ11" s="22"/>
       <c r="AR11" s="22"/>
     </row>
-    <row r="12" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>190</v>
       </c>
@@ -4250,7 +4277,7 @@
       <c r="AQ12" s="22"/>
       <c r="AR12" s="22"/>
     </row>
-    <row r="13" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
@@ -4304,7 +4331,7 @@
       <c r="AQ13" s="22"/>
       <c r="AR13" s="22"/>
     </row>
-    <row r="14" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>194</v>
       </c>
@@ -4358,7 +4385,7 @@
       <c r="AQ14" s="22"/>
       <c r="AR14" s="22"/>
     </row>
-    <row r="15" spans="1:44" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="60.75" r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>198</v>
       </c>
@@ -4426,7 +4453,7 @@
       <c r="AQ15" s="22"/>
       <c r="AR15" s="22"/>
     </row>
-    <row r="16" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.25" r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>201</v>
       </c>
@@ -4494,7 +4521,7 @@
       <c r="AQ16" s="22"/>
       <c r="AR16" s="22"/>
     </row>
-    <row r="17" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="50.25" r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>219</v>
       </c>
@@ -4556,8 +4583,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="20" spans="1:44" x14ac:dyDescent="0.2"/>
+    <row ht="15" r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -4606,7 +4633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -4651,7 +4678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4702,7 +4729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
@@ -4753,7 +4780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -4804,7 +4831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>48</v>
       </c>
@@ -4857,7 +4884,7 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="30" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
@@ -4916,7 +4943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>62</v>
       </c>
@@ -4978,7 +5005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
@@ -5037,7 +5064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -5096,7 +5123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
@@ -5155,7 +5182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>51</v>
       </c>
@@ -5214,7 +5241,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
@@ -5273,7 +5300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
@@ -5330,7 +5357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
@@ -5389,7 +5416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>69</v>
       </c>
@@ -5448,7 +5475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>72</v>
       </c>
@@ -5510,7 +5537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>75</v>
       </c>
@@ -5572,7 +5599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>76</v>
       </c>
@@ -5631,7 +5658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>79</v>
       </c>
@@ -5693,7 +5720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>80</v>
       </c>
@@ -5752,7 +5779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>72</v>
       </c>
@@ -5814,7 +5841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>84</v>
       </c>
@@ -5873,7 +5900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>83</v>
       </c>
@@ -5935,7 +5962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>94</v>
       </c>
@@ -6003,7 +6030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>102</v>
       </c>
@@ -6075,7 +6102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>103</v>
       </c>
@@ -6150,7 +6177,7 @@
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="Y58" s="77"/>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>104</v>
       </c>
@@ -6215,7 +6242,7 @@
       </c>
       <c r="Z59" s="65"/>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>105</v>
       </c>
@@ -6278,7 +6305,7 @@
       </c>
       <c r="Z61" s="65"/>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>106</v>
       </c>
@@ -6343,7 +6370,7 @@
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>108</v>
       </c>
@@ -6408,7 +6435,7 @@
       <c r="Y63" s="22"/>
       <c r="Z63" s="22"/>
     </row>
-    <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>112</v>
       </c>
@@ -6474,7 +6501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>116</v>
       </c>
@@ -6546,7 +6573,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>117</v>
       </c>
@@ -6613,7 +6640,7 @@
       </c>
       <c r="Z68" s="65"/>
     </row>
-    <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
@@ -6682,7 +6709,7 @@
       </c>
       <c r="Z69" s="65"/>
     </row>
-    <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>119</v>
       </c>
@@ -6752,7 +6779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>142</v>
       </c>
@@ -6851,10 +6878,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Y73" s="89"/>
     </row>
-    <row r="74" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -6919,7 +6946,7 @@
       <c r="AH74" s="22"/>
       <c r="AI74" s="22"/>
     </row>
-    <row r="75" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>2</v>
       </c>
@@ -6988,7 +7015,7 @@
       <c r="AH75" s="22"/>
       <c r="AI75" s="22"/>
     </row>
-    <row r="76" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -7058,7 +7085,7 @@
       <c r="AH76" s="22"/>
       <c r="AI76" s="22"/>
     </row>
-    <row r="77" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>151</v>
       </c>
@@ -7134,7 +7161,7 @@
       <c r="AH77" s="22"/>
       <c r="AI77" s="22"/>
     </row>
-    <row r="78" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>153</v>
       </c>
@@ -7215,7 +7242,7 @@
       <c r="AH78" s="22"/>
       <c r="AI78" s="22"/>
     </row>
-    <row r="79" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>156</v>
       </c>
@@ -7294,7 +7321,7 @@
       <c r="AH79" s="22"/>
       <c r="AI79" s="22"/>
     </row>
-    <row r="80" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>158</v>
       </c>
@@ -7393,7 +7420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>175</v>
       </c>
@@ -7494,7 +7521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>176</v>
       </c>
@@ -7597,7 +7624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>177</v>
       </c>
@@ -7700,7 +7727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>184</v>
       </c>
@@ -7805,7 +7832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>187</v>
       </c>
@@ -7908,7 +7935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>222</v>
       </c>
@@ -8011,7 +8038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>223</v>
       </c>
@@ -8112,7 +8139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>225</v>
       </c>
@@ -8211,80 +8238,80 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C25 C49:C51 C28 C30:C38 C40:C41 C43:C44 C46:C47 C65:C66 C53 C55 C57 C59 C61:C63 C68:C70 C72 C74:C82 C84:C85 C2:C17 C87:C90" xr:uid="{B8539413-58FA-4548-AE9B-A6C3B25F5716}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21:C25 C49:C51 C28 C30:C38 C40:C41 C43:C44 C46:C47 C65:C66 C53 C55 C57 C59 C61:C63 C68:C70 C72 C74:C82 C84:C85 C2:C17 C87:C90" type="list" xr:uid="{B8539413-58FA-4548-AE9B-A6C3B25F5716}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22 H21:H25 H49:H51 H28 H30:H38 H40:H41 H43:H44 H46:H47 H65:H66 H53 H55 H57 H59 H61:H63 H2:H11 H68:H70 H72 H74:H82 H84:H85 H87:H90" xr:uid="{DFD504A8-707E-49D1-B3B3-2838113A5108}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I22 H21:H25 H49:H51 H28 H30:H38 H40:H41 H43:H44 H46:H47 H65:H66 H53 H55 H57 H59 H61:H63 H2:H11 H68:H70 H72 H74:H82 H84:H85 H87:H90" type="list" xr:uid="{DFD504A8-707E-49D1-B3B3-2838113A5108}">
       <formula1>"Budgeted,UnBudgeted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21 K21 I23:I25 K23:K25 I2:I11 K49:K51 I28 K28 I30:I38 K30:K38 I40:I41 K40:K41 I43:I44 K43:K44 I46:I47 K46:K47 I49:I51 I65:I66 K53 I53 K55 I55 K57 I57 K59 I59 K61:K63 I61:I63 K65:K66 K2:K11 I68:I70 K68:K70 I72 K72 I74:I82 K74:K82 I84:I85 K84:K85 AO17 I87:I90 K87:K90" xr:uid="{66ABD6DD-ACE0-463B-99CD-6BEBDE7D98A2}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I21 K21 I23:I25 K23:K25 I2:I11 K49:K51 I28 K28 I30:I38 K30:K38 I40:I41 K40:K41 I43:I44 K43:K44 I46:I47 K46:K47 I49:I51 I65:I66 K53 I53 K55 I55 K57 I57 K59 I59 K61:K63 I61:I63 K65:K66 K2:K11 I68:I70 K68:K70 I72 K72 I74:I82 K74:K82 I84:I85 K84:K85 AO17 I87:I90 K87:K90" type="list" xr:uid="{66ABD6DD-ACE0-463B-99CD-6BEBDE7D98A2}">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC8:AC11 AF8:AF11 AC72 AF72 AF80:AF82 AC80:AC82 AF84:AF85 AC84:AC85 AF87:AF90 AC87:AC90" xr:uid="{1FDAC4A8-EA31-44D0-808F-0575340E7FE0}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="AC8:AC11 AF8:AF11 AC72 AF72 AF80:AF82 AC80:AC82 AF84:AF85 AC84:AC85 AF87:AF90 AC87:AC90" type="list" xr:uid="{1FDAC4A8-EA31-44D0-808F-0575340E7FE0}">
       <formula1>"NONE,THIS IS A NON-CRITICAL POSITION,LEAD,ALTERNATE TM"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Y68" r:id="rId1" xr:uid="{684A41A7-E64A-48F9-BB88-038BE26C3673}"/>
+    <hyperlink r:id="rId1" ref="Y68" xr:uid="{684A41A7-E64A-48F9-BB88-038BE26C3673}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E28-AFEB-407E-AD3A-6C7E6D857A77}">
-  <dimension ref="A1:BJ72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC7E28-AFEB-407E-AD3A-6C7E6D857A77}">
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="BH2" xSplit="4" ySplit="1"/>
       <selection activeCell="D2" sqref="D2"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="BH1" sqref="BH1:BJ1"/>
+      <selection activeCell="D2" pane="topRight" sqref="D2"/>
+      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+      <selection activeCell="BH1" pane="bottomRight" sqref="BH1:BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="14.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="19.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="16.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="25" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="16.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="40" width="16.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="30.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="9.140625" style="5" collapsed="1"/>
-    <col min="43" max="43" width="16" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="9.140625" style="5" collapsed="1"/>
-    <col min="45" max="45" width="17.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="46" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="49.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="6.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="22.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="14.5703125" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="5" width="14.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="17.5703125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" style="5" width="19.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="5" width="12.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="5" width="16.42578125" collapsed="true"/>
+    <col min="20" max="22" customWidth="true" style="5" width="16.42578125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="5" width="16.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="5" width="10.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="5" width="10.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="5" width="20.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="5" width="20.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="5" width="11.42578125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="5" width="10.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="5" width="15.0" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="5" width="25.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="5" width="16.7109375" collapsed="true"/>
+    <col min="38" max="40" customWidth="true" style="5" width="16.7109375" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="5" width="30.140625" collapsed="true"/>
+    <col min="42" max="42" style="5" width="9.140625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="5" width="16.0" collapsed="true"/>
+    <col min="44" max="44" style="5" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="5" width="17.140625" collapsed="true"/>
+    <col min="46" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8472,7 +8499,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>234</v>
       </c>
@@ -8584,7 +8611,7 @@
       <c r="BG2" s="22"/>
       <c r="BH2" s="22"/>
     </row>
-    <row r="3" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>275</v>
       </c>
@@ -8704,7 +8731,7 @@
       <c r="BG3" s="22"/>
       <c r="BH3" s="22"/>
     </row>
-    <row r="4" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>274</v>
       </c>
@@ -8822,7 +8849,7 @@
       <c r="BG4" s="22"/>
       <c r="BH4" s="22"/>
     </row>
-    <row r="5" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -8948,7 +8975,7 @@
       <c r="BG5" s="22"/>
       <c r="BH5" s="22"/>
     </row>
-    <row r="6" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>291</v>
       </c>
@@ -9064,7 +9091,7 @@
       <c r="BG6" s="112"/>
       <c r="BH6" s="112"/>
     </row>
-    <row r="7" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>292</v>
       </c>
@@ -9188,7 +9215,7 @@
       <c r="BG7" s="112"/>
       <c r="BH7" s="112"/>
     </row>
-    <row r="8" spans="1:62" s="206" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="8" s="206" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="198"/>
       <c r="B8" s="208" t="s">
         <v>346</v>
@@ -9254,7 +9281,7 @@
       <c r="BG8" s="205"/>
       <c r="BH8" s="205"/>
     </row>
-    <row r="9" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>348</v>
       </c>
@@ -9374,8 +9401,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:62" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="20" spans="1:62" x14ac:dyDescent="0.2"/>
+    <row ht="15" r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>261</v>
       </c>
@@ -9481,7 +9508,7 @@
       <c r="BG13" s="22"/>
       <c r="BH13" s="22"/>
     </row>
-    <row r="14" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>262</v>
       </c>
@@ -9595,7 +9622,7 @@
       <c r="BG14" s="22"/>
       <c r="BH14" s="22"/>
     </row>
-    <row r="16" spans="1:62" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>267</v>
       </c>
@@ -9705,7 +9732,7 @@
       <c r="BG16" s="22"/>
       <c r="BH16" s="22"/>
     </row>
-    <row r="17" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>268</v>
       </c>
@@ -9823,7 +9850,7 @@
       <c r="BG17" s="22"/>
       <c r="BH17" s="22"/>
     </row>
-    <row r="19" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>267</v>
       </c>
@@ -9929,7 +9956,7 @@
       <c r="BG19" s="22"/>
       <c r="BH19" s="22"/>
     </row>
-    <row r="20" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>271</v>
       </c>
@@ -10047,7 +10074,7 @@
       <c r="BG20" s="22"/>
       <c r="BH20" s="22"/>
     </row>
-    <row r="22" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>280</v>
       </c>
@@ -10159,7 +10186,7 @@
       <c r="BG22" s="22"/>
       <c r="BH22" s="22"/>
     </row>
-    <row r="23" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>281</v>
       </c>
@@ -10279,7 +10306,7 @@
       <c r="BG23" s="22"/>
       <c r="BH23" s="22"/>
     </row>
-    <row r="25" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>287</v>
       </c>
@@ -10387,7 +10414,7 @@
       <c r="BG25" s="22"/>
       <c r="BH25" s="22"/>
     </row>
-    <row r="26" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>288</v>
       </c>
@@ -10503,7 +10530,7 @@
       <c r="BG26" s="22"/>
       <c r="BH26" s="22"/>
     </row>
-    <row r="28" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>297</v>
       </c>
@@ -10615,7 +10642,7 @@
       <c r="BG28" s="22"/>
       <c r="BH28" s="22"/>
     </row>
-    <row r="29" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>304</v>
       </c>
@@ -10727,7 +10754,7 @@
       <c r="BG29" s="22"/>
       <c r="BH29" s="22"/>
     </row>
-    <row r="30" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>279</v>
       </c>
@@ -10843,7 +10870,7 @@
       <c r="BG30" s="22"/>
       <c r="BH30" s="22"/>
     </row>
-    <row r="32" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>298</v>
       </c>
@@ -10955,7 +10982,7 @@
       <c r="BG32" s="112"/>
       <c r="BH32" s="112"/>
     </row>
-    <row r="33" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>299</v>
       </c>
@@ -11075,7 +11102,7 @@
       <c r="BG33" s="112"/>
       <c r="BH33" s="112"/>
     </row>
-    <row r="36" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>307</v>
       </c>
@@ -11187,7 +11214,7 @@
       <c r="BG36" s="22"/>
       <c r="BH36" s="22"/>
     </row>
-    <row r="37" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>308</v>
       </c>
@@ -11307,7 +11334,7 @@
       <c r="BG37" s="22"/>
       <c r="BH37" s="22"/>
     </row>
-    <row r="38" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>309</v>
       </c>
@@ -11419,7 +11446,7 @@
       <c r="BG38" s="112"/>
       <c r="BH38" s="112"/>
     </row>
-    <row r="39" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>310</v>
       </c>
@@ -11539,7 +11566,7 @@
       <c r="BG39" s="112"/>
       <c r="BH39" s="112"/>
     </row>
-    <row r="41" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>307</v>
       </c>
@@ -11651,7 +11678,7 @@
       <c r="BG41" s="22"/>
       <c r="BH41" s="22"/>
     </row>
-    <row r="42" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>308</v>
       </c>
@@ -11771,7 +11798,7 @@
       <c r="BG42" s="22"/>
       <c r="BH42" s="22"/>
     </row>
-    <row r="44" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>315</v>
       </c>
@@ -11883,7 +11910,7 @@
       <c r="BG44" s="112"/>
       <c r="BH44" s="112"/>
     </row>
-    <row r="47" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>318</v>
       </c>
@@ -11997,7 +12024,7 @@
       <c r="BG47" s="22"/>
       <c r="BH47" s="22"/>
     </row>
-    <row r="48" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>319</v>
       </c>
@@ -12119,7 +12146,7 @@
       <c r="BG48" s="22"/>
       <c r="BH48" s="22"/>
     </row>
-    <row r="49" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>320</v>
       </c>
@@ -12237,7 +12264,7 @@
       <c r="BG49" s="22"/>
       <c r="BH49" s="22"/>
     </row>
-    <row r="50" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>321</v>
       </c>
@@ -12361,7 +12388,7 @@
       <c r="BG50" s="22"/>
       <c r="BH50" s="22"/>
     </row>
-    <row r="51" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>322</v>
       </c>
@@ -12477,7 +12504,7 @@
       <c r="BG51" s="112"/>
       <c r="BH51" s="112"/>
     </row>
-    <row r="52" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>323</v>
       </c>
@@ -12599,7 +12626,7 @@
       <c r="BG52" s="112"/>
       <c r="BH52" s="112"/>
     </row>
-    <row r="56" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>335</v>
       </c>
@@ -12709,7 +12736,7 @@
       <c r="BG56" s="22"/>
       <c r="BH56" s="22"/>
     </row>
-    <row r="57" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>336</v>
       </c>
@@ -12823,7 +12850,7 @@
       <c r="BG57" s="22"/>
       <c r="BH57" s="22"/>
     </row>
-    <row r="58" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>337</v>
       </c>
@@ -12939,7 +12966,7 @@
       <c r="BG58" s="112"/>
       <c r="BH58" s="112"/>
     </row>
-    <row r="61" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>339</v>
       </c>
@@ -13053,7 +13080,7 @@
       <c r="BG61" s="22"/>
       <c r="BH61" s="22"/>
     </row>
-    <row r="62" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>340</v>
       </c>
@@ -13175,7 +13202,7 @@
       <c r="BG62" s="22"/>
       <c r="BH62" s="22"/>
     </row>
-    <row r="63" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>274</v>
       </c>
@@ -13289,7 +13316,7 @@
       <c r="BG63" s="22"/>
       <c r="BH63" s="22"/>
     </row>
-    <row r="64" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>279</v>
       </c>
@@ -13411,7 +13438,7 @@
       <c r="BG64" s="22"/>
       <c r="BH64" s="22"/>
     </row>
-    <row r="65" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>291</v>
       </c>
@@ -13525,7 +13552,7 @@
       <c r="BG65" s="112"/>
       <c r="BH65" s="112"/>
     </row>
-    <row r="66" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>292</v>
       </c>
@@ -13647,7 +13674,7 @@
       <c r="BG66" s="112"/>
       <c r="BH66" s="112"/>
     </row>
-    <row r="69" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>339</v>
       </c>
@@ -13757,7 +13784,7 @@
       <c r="BG69" s="22"/>
       <c r="BH69" s="22"/>
     </row>
-    <row r="70" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="70" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>340</v>
       </c>
@@ -13875,7 +13902,7 @@
       <c r="BG70" s="22"/>
       <c r="BH70" s="22"/>
     </row>
-    <row r="72" spans="1:60" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="72" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>344</v>
       </c>
@@ -13995,23 +14022,23 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q14 O13:O14 Q16:Q17 O16:O17 Q19:Q20 O19:O20 O25:O26 Q22:Q23 O22:O23 Q25:Q26 O41:O42 Q28:Q30 O32:O33 Q32:Q33 O28:O30 Q36:Q39 O36:O39 Q41:Q42 Q2:Q9 O2:O9 Q44 O44 Q47:Q52 O47:O52 Q56:Q58 O61:O66 Q61:Q66 O56:O58 Q69:Q70 O69:O70 O72 Q72" xr:uid="{8422ABC3-7841-4E8E-A585-655E7099C419}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="Q13:Q14 O13:O14 Q16:Q17 O16:O17 Q19:Q20 O19:O20 O25:O26 Q22:Q23 O22:O23 Q25:Q26 O41:O42 Q28:Q30 O32:O33 Q32:Q33 O28:O30 Q36:Q39 O36:O39 Q41:Q42 Q2:Q9 O2:O9 Q44 O44 Q47:Q52 O47:O52 Q56:Q58 O61:O66 Q61:Q66 O56:O58 Q69:Q70 O69:O70 O72 Q72" type="list" xr:uid="{8422ABC3-7841-4E8E-A585-655E7099C419}">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H14 H16:H17 H19:H20 H25:H26 H22:H23 H41:H42 H32:H33 H28:H30 H36:H39 H2:H9 H44 H47:H52 H56:H58 H61:H66 H69:H70 H72" xr:uid="{2F251B11-EC28-4751-AF9B-9D3977DDA982}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H13:H14 H16:H17 H19:H20 H25:H26 H22:H23 H41:H42 H32:H33 H28:H30 H36:H39 H2:H9 H44 H47:H52 H56:H58 H61:H66 H69:H70 H72" type="list" xr:uid="{2F251B11-EC28-4751-AF9B-9D3977DDA982}">
       <formula1>"Budgeted,UnBudgeted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C16:C17 C19:C20 C25:C26 C22:C23 C41:C42 C32:C33 C28:C30 C36:C39 C44 C47:C52 C56:C58 C61:C66 C69:C70 C72 C2:C9" xr:uid="{C06B9276-9250-49A8-8198-468B98A87BF3}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C13:C14 C16:C17 C19:C20 C25:C26 C22:C23 C41:C42 C32:C33 C28:C30 C36:C39 C44 C47:C52 C56:C58 C61:C66 C69:C70 C72 C2:C9" type="list" xr:uid="{C06B9276-9250-49A8-8198-468B98A87BF3}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J17 J20 J3 J26 J23 J5 J42 J33 J30 J37 J39 J7:J8 J48 J50 J52 J62 J64 J66 J70" xr:uid="{03AE5B7C-F460-47DE-B09D-C82AC6CA0658}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="J14 J17 J20 J3 J26 J23 J5 J42 J33 J30 J37 J39 J7:J8 J48 J50 J52 J62 J64 J66 J70" type="list" xr:uid="{03AE5B7C-F460-47DE-B09D-C82AC6CA0658}">
       <formula1>"2018,2019,2020"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA14 AA16:AA17 AA19:AA20 AA25:AA26 AA22:AA23 AA41:AA42 AA32:AA33 AA28:AA30 AA36:AA39 AA2:AA9 AA44 AA47:AA52 AA56:AA58 AA61:AA66 AA69:AA70 AA72" xr:uid="{4D3BF2C0-8D4C-4EAD-9320-D5D028AFBB39}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="AA13:AA14 AA16:AA17 AA19:AA20 AA25:AA26 AA22:AA23 AA41:AA42 AA32:AA33 AA28:AA30 AA36:AA39 AA2:AA9 AA44 AA47:AA52 AA56:AA58 AA61:AA66 AA69:AA70 AA72" type="list" xr:uid="{4D3BF2C0-8D4C-4EAD-9320-D5D028AFBB39}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/InputData.xlsx
+++ b/Data Files/InputData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{4F5E4B9F-49B3-417F-93A9-6AC82B981A52}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1C909C1A-965C-473C-A9EA-42DC3A96FF77}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView tabRatio="593" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -1177,7 +1177,7 @@
     <t>RM 60.00</t>
   </si>
   <si>
-    <t>TRX Ref#: 15966372112598510</t>
+    <t>TRX Ref#: 15966813138738510</t>
   </si>
 </sst>
 </file>
@@ -2939,7 +2939,7 @@
       <selection activeCell="D2" sqref="D2"/>
       <selection activeCell="D2" pane="topRight" sqref="D2"/>
       <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
-      <selection activeCell="C3" pane="bottomRight" sqref="C3"/>
+      <selection activeCell="E2" pane="bottomRight" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
